--- a/data/trans_dic/P78C4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C4_2023-Estudios-trans_dic.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>46,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>72,96%</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,87; 100,0</t>
+          <t>13,62; 100,0</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,22%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>56,4%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,09; 76,41</t>
+          <t>8,34; 76,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,72; 100,0</t>
+          <t>50,4; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,65; 82,32</t>
+          <t>25,15; 81,75</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>38,8%</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>79,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>56,98%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 76,72</t>
+          <t>13,25; 75,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,81; 93,8</t>
+          <t>50,76; 93,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,99; 79,08</t>
+          <t>32,45; 78,04</t>
         </is>
       </c>
     </row>
